--- a/moneyclub/groups/product burndown.xlsx
+++ b/moneyclub/groups/product burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <r>
       <t>1.</t>
@@ -778,6 +778,9 @@
   </si>
   <si>
     <t>articles</t>
+  </si>
+  <si>
+    <t>Total Effort</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,6 +1498,9 @@
       </c>
     </row>
     <row r="43" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C43">
         <f>SUM(C3:C40)</f>
         <v>90</v>
